--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\Documents\GitHub\valoshopbot\ValoShop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD19D0FE-7FCC-4426-AA2F-6D58B053CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>skinid</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>ke1</t>
+  </si>
+  <si>
+    <t>Luxe</t>
+  </si>
+  <si>
+    <t>ke2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +362,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\Documents\GitHub\valoshopbot\ValoShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD19D0FE-7FCC-4426-AA2F-6D58B053CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB487D-AF9D-46D4-8398-CC60C9D3DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>skin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>skinid</t>
   </si>
@@ -36,26 +33,863 @@
     <t>effect</t>
   </si>
   <si>
-    <t>Prime</t>
-  </si>
-  <si>
     <t>ke1</t>
   </si>
   <si>
-    <t>Luxe</t>
-  </si>
-  <si>
     <t>ke2</t>
+  </si>
+  <si>
+    <t>ke3</t>
+  </si>
+  <si>
+    <t>ke0</t>
+  </si>
+  <si>
+    <t>ke4</t>
+  </si>
+  <si>
+    <t>ke5</t>
+  </si>
+  <si>
+    <t>ke6</t>
+  </si>
+  <si>
+    <t>ke7</t>
+  </si>
+  <si>
+    <t>ke8</t>
+  </si>
+  <si>
+    <t>ke9</t>
+  </si>
+  <si>
+    <t>ke10</t>
+  </si>
+  <si>
+    <t>ke11</t>
+  </si>
+  <si>
+    <t>ke12</t>
+  </si>
+  <si>
+    <t>ke13</t>
+  </si>
+  <si>
+    <t>ke14</t>
+  </si>
+  <si>
+    <t>ke15</t>
+  </si>
+  <si>
+    <t>ke16</t>
+  </si>
+  <si>
+    <t>ke17</t>
+  </si>
+  <si>
+    <t>ke18</t>
+  </si>
+  <si>
+    <t>ke19</t>
+  </si>
+  <si>
+    <t>ke20</t>
+  </si>
+  <si>
+    <t>ke21</t>
+  </si>
+  <si>
+    <t>ke22</t>
+  </si>
+  <si>
+    <t>ke23</t>
+  </si>
+  <si>
+    <t>ke24</t>
+  </si>
+  <si>
+    <t>ke25</t>
+  </si>
+  <si>
+    <t>ke26</t>
+  </si>
+  <si>
+    <t>ke27</t>
+  </si>
+  <si>
+    <t>ke28</t>
+  </si>
+  <si>
+    <t>ke29</t>
+  </si>
+  <si>
+    <t>ke30</t>
+  </si>
+  <si>
+    <t>ke31</t>
+  </si>
+  <si>
+    <t>ke32</t>
+  </si>
+  <si>
+    <t>ke33</t>
+  </si>
+  <si>
+    <t>ke34</t>
+  </si>
+  <si>
+    <t>ke35</t>
+  </si>
+  <si>
+    <t>ke36</t>
+  </si>
+  <si>
+    <t>ke37</t>
+  </si>
+  <si>
+    <t>ke38</t>
+  </si>
+  <si>
+    <t>ke39</t>
+  </si>
+  <si>
+    <t>ke40</t>
+  </si>
+  <si>
+    <t>ke41</t>
+  </si>
+  <si>
+    <t>ke42</t>
+  </si>
+  <si>
+    <t>ke43</t>
+  </si>
+  <si>
+    <t>ke44</t>
+  </si>
+  <si>
+    <t>ke45</t>
+  </si>
+  <si>
+    <t>ke46</t>
+  </si>
+  <si>
+    <t>ke47</t>
+  </si>
+  <si>
+    <t>ke48</t>
+  </si>
+  <si>
+    <t>ke49</t>
+  </si>
+  <si>
+    <t>ke50</t>
+  </si>
+  <si>
+    <t>ke51</t>
+  </si>
+  <si>
+    <t>ke52</t>
+  </si>
+  <si>
+    <t>ke53</t>
+  </si>
+  <si>
+    <t>ke54</t>
+  </si>
+  <si>
+    <t>ke55</t>
+  </si>
+  <si>
+    <t>ke56</t>
+  </si>
+  <si>
+    <t>ke57</t>
+  </si>
+  <si>
+    <t>Broken Blade of the Ruined King</t>
+  </si>
+  <si>
+    <t>Relic of the Sentinel</t>
+  </si>
+  <si>
+    <t>Yoru's Stylish Butterfly Comb</t>
+  </si>
+  <si>
+    <t>Personal Administrative Melee Unit</t>
+  </si>
+  <si>
+    <t>Hu Else</t>
+  </si>
+  <si>
+    <t>Hack</t>
+  </si>
+  <si>
+    <t>Blade of Chaos</t>
+  </si>
+  <si>
+    <t>Blade of Serket</t>
+  </si>
+  <si>
+    <t>Default Knife</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>cc0</t>
+  </si>
+  <si>
+    <t>cc1</t>
+  </si>
+  <si>
+    <t>cc2</t>
+  </si>
+  <si>
+    <t>cc3</t>
+  </si>
+  <si>
+    <t>cc4</t>
+  </si>
+  <si>
+    <t>cc5</t>
+  </si>
+  <si>
+    <t>cc6</t>
+  </si>
+  <si>
+    <t>cc7</t>
+  </si>
+  <si>
+    <t>cc8</t>
+  </si>
+  <si>
+    <t>cc9</t>
+  </si>
+  <si>
+    <t>cc10</t>
+  </si>
+  <si>
+    <t>cc11</t>
+  </si>
+  <si>
+    <t>cc12</t>
+  </si>
+  <si>
+    <t>cc13</t>
+  </si>
+  <si>
+    <t>cc14</t>
+  </si>
+  <si>
+    <t>cc15</t>
+  </si>
+  <si>
+    <t>cc16</t>
+  </si>
+  <si>
+    <t>cc17</t>
+  </si>
+  <si>
+    <t>cc18</t>
+  </si>
+  <si>
+    <t>"Smite" Classic</t>
+  </si>
+  <si>
+    <t>"Spline" Classic</t>
+  </si>
+  <si>
+    <t>"Sakura" Classic</t>
+  </si>
+  <si>
+    <t>"Avalanche" Classic</t>
+  </si>
+  <si>
+    <t>"Galleria" Classic</t>
+  </si>
+  <si>
+    <t>"Prime" Classic</t>
+  </si>
+  <si>
+    <t>"Default" Classic</t>
+  </si>
+  <si>
+    <t>"Reverie" Sword</t>
+  </si>
+  <si>
+    <t>"Luna's" Descent</t>
+  </si>
+  <si>
+    <t>"Araxys"Bio Harvester</t>
+  </si>
+  <si>
+    <t>"Cryostasis" Impact Drill</t>
+  </si>
+  <si>
+    <t>"Caeruleus"</t>
+  </si>
+  <si>
+    <t>"Soulstrife" Scythe</t>
+  </si>
+  <si>
+    <t>"Ion" Karambit</t>
+  </si>
+  <si>
+    <t>"Crimsonbeast" Hammer</t>
+  </si>
+  <si>
+    <t>Terminus "A Quo"</t>
+  </si>
+  <si>
+    <t>"Equilibrium"</t>
+  </si>
+  <si>
+    <t>"Reaver" Karambit</t>
+  </si>
+  <si>
+    <t>"Neptune" Anchor</t>
+  </si>
+  <si>
+    <t>"Titanmail" Mace</t>
+  </si>
+  <si>
+    <t>"Xenohunter" Knife</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Firefly</t>
+  </si>
+  <si>
+    <t>"Gaia's" Wrath</t>
+  </si>
+  <si>
+    <t>"Snowfall" Wand</t>
+  </si>
+  <si>
+    <t>"Magepunk" Shock Gauntlet</t>
+  </si>
+  <si>
+    <t>"Radiant Crisis 001" Baseball Bat</t>
+  </si>
+  <si>
+    <t>"Catrina"</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Blade</t>
+  </si>
+  <si>
+    <t>"Recon" Balisong</t>
+  </si>
+  <si>
+    <t>"Waveform"</t>
+  </si>
+  <si>
+    <t>"Nebula" Knife</t>
+  </si>
+  <si>
+    <t>"Origin" Crescent Blade</t>
+  </si>
+  <si>
+    <t>"Prosperity"</t>
+  </si>
+  <si>
+    <t>"Forsaken" Ritual Blade</t>
+  </si>
+  <si>
+    <t>"Magepunk" Electroblade</t>
+  </si>
+  <si>
+    <t>"Prime//2.0" Knife</t>
+  </si>
+  <si>
+    <t>"Celestial" Fan</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 1" Knife</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Axe</t>
+  </si>
+  <si>
+    <t>"Winterwunderland" Candy Cane</t>
+  </si>
+  <si>
+    <t>"BlastX" Knife</t>
+  </si>
+  <si>
+    <t>"Ion" Energy Sword</t>
+  </si>
+  <si>
+    <t>"Reaver" Knife</t>
+  </si>
+  <si>
+    <t>"Gravitational Uranium Neuroblaster" Baton</t>
+  </si>
+  <si>
+    <t>"Singularity" Knife</t>
+  </si>
+  <si>
+    <t>"Smite" Knife</t>
+  </si>
+  <si>
+    <t>"Ego" Knife</t>
+  </si>
+  <si>
+    <t>"Spline" Dagger</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Knife</t>
+  </si>
+  <si>
+    <t>"Hivemind" Sword</t>
+  </si>
+  <si>
+    <t>"Oni" Claw</t>
+  </si>
+  <si>
+    <t>"Elderflame" Dagger</t>
+  </si>
+  <si>
+    <t>"Prism" Knife</t>
+  </si>
+  <si>
+    <t>"Sovereign" Sword</t>
+  </si>
+  <si>
+    <t>"Luxe" Knife</t>
+  </si>
+  <si>
+    <t>"Prime" Axe</t>
+  </si>
+  <si>
+    <t>"Gravitational Uranium Neuroblaster" Classic</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Classic</t>
+  </si>
+  <si>
+    <t>"Forsaken" Classic</t>
+  </si>
+  <si>
+    <t>"Spectrum" Classic</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 2" Classic</t>
+  </si>
+  <si>
+    <t>"Radiant Crisis 001" Classic</t>
+  </si>
+  <si>
+    <t>"Snowfall" Classic</t>
+  </si>
+  <si>
+    <t>"Undercity" Classic</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Classic</t>
+  </si>
+  <si>
+    <t>"Kohaku &amp; Matsuba" Classic</t>
+  </si>
+  <si>
+    <t>"Cryostasis" Classic</t>
+  </si>
+  <si>
+    <t>"Reverie" Classic</t>
+  </si>
+  <si>
+    <t>sy0</t>
+  </si>
+  <si>
+    <t>sy1</t>
+  </si>
+  <si>
+    <t>sy2</t>
+  </si>
+  <si>
+    <t>sy3</t>
+  </si>
+  <si>
+    <t>sy4</t>
+  </si>
+  <si>
+    <t>sy5</t>
+  </si>
+  <si>
+    <t>sy6</t>
+  </si>
+  <si>
+    <t>sy7</t>
+  </si>
+  <si>
+    <t>sy8</t>
+  </si>
+  <si>
+    <t>"Default" Shorty</t>
+  </si>
+  <si>
+    <t>"Oni" Shorty</t>
+  </si>
+  <si>
+    <t>"Hivemind" Shorty</t>
+  </si>
+  <si>
+    <t>"Wasteland" Shorty</t>
+  </si>
+  <si>
+    <t>"Tigris" Shorty</t>
+  </si>
+  <si>
+    <t>"Neptune" Shorty</t>
+  </si>
+  <si>
+    <t>"Prelude to Chaos" Shorty</t>
+  </si>
+  <si>
+    <t>"Araxys" Shorty</t>
+  </si>
+  <si>
+    <t>"Prism II" Shorty</t>
+  </si>
+  <si>
+    <t>"Doodle Buds" Shorty</t>
+  </si>
+  <si>
+    <t>sy9</t>
+  </si>
+  <si>
+    <t>"Default" Frenzy</t>
+  </si>
+  <si>
+    <t>fy0</t>
+  </si>
+  <si>
+    <t>fy1</t>
+  </si>
+  <si>
+    <t>fy2</t>
+  </si>
+  <si>
+    <t>fy3</t>
+  </si>
+  <si>
+    <t>fy4</t>
+  </si>
+  <si>
+    <t>fy5</t>
+  </si>
+  <si>
+    <t>fy6</t>
+  </si>
+  <si>
+    <t>fy7</t>
+  </si>
+  <si>
+    <t>fy8</t>
+  </si>
+  <si>
+    <t>fy9</t>
+  </si>
+  <si>
+    <t>fy10</t>
+  </si>
+  <si>
+    <t>fy11</t>
+  </si>
+  <si>
+    <t>fy12</t>
+  </si>
+  <si>
+    <t>fy13</t>
+  </si>
+  <si>
+    <t>fy14</t>
+  </si>
+  <si>
+    <t>fy15</t>
+  </si>
+  <si>
+    <t>fy16</t>
+  </si>
+  <si>
+    <t>"Rush" Frenzy</t>
+  </si>
+  <si>
+    <t>"Elderflame" Frenzy</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Frenzy</t>
+  </si>
+  <si>
+    <t>"Sensation" Frenzy</t>
+  </si>
+  <si>
+    <t>"BlastX" Frenzy</t>
+  </si>
+  <si>
+    <t>"Horizon" Frenzy</t>
+  </si>
+  <si>
+    <t>"Celestial" Frenzy</t>
+  </si>
+  <si>
+    <t>"Prime//2.0" Frenzy</t>
+  </si>
+  <si>
+    <t>"Origin" Frenzy</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Frenzy</t>
+  </si>
+  <si>
+    <t>"Nunca Olvidados" Frenzy</t>
+  </si>
+  <si>
+    <t>"Team Ace" Frenzy</t>
+  </si>
+  <si>
+    <t>"Titanmail" Frenzy</t>
+  </si>
+  <si>
+    <t>"Xenohunter" Frenzy</t>
+  </si>
+  <si>
+    <t>"Sarmad" Frenzy</t>
+  </si>
+  <si>
+    <t>"Ion" Frenzy</t>
+  </si>
+  <si>
+    <t>gt0</t>
+  </si>
+  <si>
+    <t>gt1</t>
+  </si>
+  <si>
+    <t>gt2</t>
+  </si>
+  <si>
+    <t>gt3</t>
+  </si>
+  <si>
+    <t>gt4</t>
+  </si>
+  <si>
+    <t>gt5</t>
+  </si>
+  <si>
+    <t>gt6</t>
+  </si>
+  <si>
+    <t>gt7</t>
+  </si>
+  <si>
+    <t>gt8</t>
+  </si>
+  <si>
+    <t>gt9</t>
+  </si>
+  <si>
+    <t>gt10</t>
+  </si>
+  <si>
+    <t>gt11</t>
+  </si>
+  <si>
+    <t>gt12</t>
+  </si>
+  <si>
+    <t>gt13</t>
+  </si>
+  <si>
+    <t>gt14</t>
+  </si>
+  <si>
+    <t>gt15</t>
+  </si>
+  <si>
+    <t>gt16</t>
+  </si>
+  <si>
+    <t>gt17</t>
+  </si>
+  <si>
+    <t>"Default" Ghost</t>
+  </si>
+  <si>
+    <t>"Luxe" Ghost</t>
+  </si>
+  <si>
+    <t>"Sovereign" Ghost</t>
+  </si>
+  <si>
+    <t>"Prism" Ghost</t>
+  </si>
+  <si>
+    <t>"Ego" Ghost</t>
+  </si>
+  <si>
+    <t>"Winterwunderland" Ghost</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 1" Ghost</t>
+  </si>
+  <si>
+    <t>"Infantry" Ghost</t>
+  </si>
+  <si>
+    <t>"Magepunk" Ghost</t>
+  </si>
+  <si>
+    <t>"Depths" Ghost</t>
+  </si>
+  <si>
+    <t>"Tethered Realms" Ghost</t>
+  </si>
+  <si>
+    <t>"Ruination" Ghost</t>
+  </si>
+  <si>
+    <t>"Recon" Ghost</t>
+  </si>
+  <si>
+    <t>"Gaia's Vengeance" Ghost</t>
+  </si>
+  <si>
+    <t>"Endeavour" Ghost</t>
+  </si>
+  <si>
+    <t>"Reaver" Ghost</t>
+  </si>
+  <si>
+    <t>"Soulstrife" Ghost</t>
+  </si>
+  <si>
+    <t>"Luna" Ghost</t>
+  </si>
+  <si>
+    <t>"Default" Sheriff</t>
+  </si>
+  <si>
+    <t>sf0</t>
+  </si>
+  <si>
+    <t>sf1</t>
+  </si>
+  <si>
+    <t>sf2</t>
+  </si>
+  <si>
+    <t>sf3</t>
+  </si>
+  <si>
+    <t>sf4</t>
+  </si>
+  <si>
+    <t>sf5</t>
+  </si>
+  <si>
+    <t>sf6</t>
+  </si>
+  <si>
+    <t>sf7</t>
+  </si>
+  <si>
+    <t>sf8</t>
+  </si>
+  <si>
+    <t>sf9</t>
+  </si>
+  <si>
+    <t>sf10</t>
+  </si>
+  <si>
+    <t>sf11</t>
+  </si>
+  <si>
+    <t>sf12</t>
+  </si>
+  <si>
+    <t>sf13</t>
+  </si>
+  <si>
+    <t>sf14</t>
+  </si>
+  <si>
+    <t>sf15</t>
+  </si>
+  <si>
+    <t>sf16</t>
+  </si>
+  <si>
+    <t>sf17</t>
+  </si>
+  <si>
+    <t>"Aristocrat" Sheriff</t>
+  </si>
+  <si>
+    <t>"Convex" Sheriff</t>
+  </si>
+  <si>
+    <t>"Sakura" Sheriff</t>
+  </si>
+  <si>
+    <t>"Singularity" Sheriff</t>
+  </si>
+  <si>
+    <t>"Reaver" Sheriff</t>
+  </si>
+  <si>
+    <t>"Ion" Sheriff</t>
+  </si>
+  <si>
+    <t>"Wasteland" Sheriff</t>
+  </si>
+  <si>
+    <t>"Prism II" Sheriff</t>
+  </si>
+  <si>
+    <t>"Silvanus" Sheriff</t>
+  </si>
+  <si>
+    <t>"Minima" Sheriff</t>
+  </si>
+  <si>
+    <t>"Sentinels of Light" Sheriff</t>
+  </si>
+  <si>
+    <t>"Nebula" Sheriff</t>
+  </si>
+  <si>
+    <t>"Magepunk" Sheriff</t>
+  </si>
+  <si>
+    <t>"Protocol 781-A" Sheriff</t>
+  </si>
+  <si>
+    <t>"ChronoVoid" Sheriff</t>
+  </si>
+  <si>
+    <t>"Crimsonbeast" Sheriff</t>
+  </si>
+  <si>
+    <t>"Abyssal" Sheriff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,42 +1197,1151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winte\Documents\GitHub\valoshopbot\ValoShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FB487D-AF9D-46D4-8398-CC60C9D3DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
   <si>
     <t>skinid</t>
   </si>
@@ -234,9 +233,6 @@
     <t>Default Knife</t>
   </si>
   <si>
-    <t>knife</t>
-  </si>
-  <si>
     <t>cc0</t>
   </si>
   <si>
@@ -874,13 +870,634 @@
   </si>
   <si>
     <t>"Abyssal" Sheriff</t>
+  </si>
+  <si>
+    <t>"Default" Bucky</t>
+  </si>
+  <si>
+    <t>"Galleria" Bucky</t>
+  </si>
+  <si>
+    <t>"Oni" Bucky</t>
+  </si>
+  <si>
+    <t>"Gravitational Uranium Neuroblaster" Bucky</t>
+  </si>
+  <si>
+    <t>"Ion" Bucky</t>
+  </si>
+  <si>
+    <t>"Prism II" Bucky</t>
+  </si>
+  <si>
+    <t>"Horizon" Bucky</t>
+  </si>
+  <si>
+    <t>"Prime//2.0" Bucky</t>
+  </si>
+  <si>
+    <t>"Magepunk" Bucky</t>
+  </si>
+  <si>
+    <t>"Origin" Bucky</t>
+  </si>
+  <si>
+    <t>"Radiant Crisis 001" Bucky</t>
+  </si>
+  <si>
+    <t>"Titanmail" Bucky</t>
+  </si>
+  <si>
+    <t>"Xenohunter" Bucky</t>
+  </si>
+  <si>
+    <t>by0</t>
+  </si>
+  <si>
+    <t>by1</t>
+  </si>
+  <si>
+    <t>by2</t>
+  </si>
+  <si>
+    <t>by3</t>
+  </si>
+  <si>
+    <t>by4</t>
+  </si>
+  <si>
+    <t>by5</t>
+  </si>
+  <si>
+    <t>by6</t>
+  </si>
+  <si>
+    <t>by7</t>
+  </si>
+  <si>
+    <t>by8</t>
+  </si>
+  <si>
+    <t>by9</t>
+  </si>
+  <si>
+    <t>by10</t>
+  </si>
+  <si>
+    <t>by11</t>
+  </si>
+  <si>
+    <t>by12</t>
+  </si>
+  <si>
+    <t>"Default" Marshal</t>
+  </si>
+  <si>
+    <t>"Galleria" Marshal</t>
+  </si>
+  <si>
+    <t>"Sovereign" Marshal</t>
+  </si>
+  <si>
+    <t>"Avalanche" Marshal</t>
+  </si>
+  <si>
+    <t>"Wasteland" Marshal</t>
+  </si>
+  <si>
+    <t>"Winterwunderland" Marshal</t>
+  </si>
+  <si>
+    <t>"Magepunk" Marshal</t>
+  </si>
+  <si>
+    <t>"Gaia's Vengeance" Marshal</t>
+  </si>
+  <si>
+    <t>"Doodle Buds" Marshal</t>
+  </si>
+  <si>
+    <t>"Crimsonbeast" Marshal</t>
+  </si>
+  <si>
+    <t>"Luna" Marshal</t>
+  </si>
+  <si>
+    <t>"Reverie" Marshal</t>
+  </si>
+  <si>
+    <t>ml0</t>
+  </si>
+  <si>
+    <t>ml1</t>
+  </si>
+  <si>
+    <t>ml2</t>
+  </si>
+  <si>
+    <t>ml3</t>
+  </si>
+  <si>
+    <t>ml4</t>
+  </si>
+  <si>
+    <t>ml5</t>
+  </si>
+  <si>
+    <t>ml6</t>
+  </si>
+  <si>
+    <t>ml7</t>
+  </si>
+  <si>
+    <t>ml8</t>
+  </si>
+  <si>
+    <t>ml9</t>
+  </si>
+  <si>
+    <t>ml10</t>
+  </si>
+  <si>
+    <t>ml11</t>
+  </si>
+  <si>
+    <t>sr0</t>
+  </si>
+  <si>
+    <t>"Default" Stinger</t>
+  </si>
+  <si>
+    <t>"Aristocrat" Stinger</t>
+  </si>
+  <si>
+    <t>"Sovereign" Stinger</t>
+  </si>
+  <si>
+    <t>"Sakura" Stinger</t>
+  </si>
+  <si>
+    <t>"Ego" Stinger</t>
+  </si>
+  <si>
+    <t>"Sensation" Stinger</t>
+  </si>
+  <si>
+    <t>"Prism II" Stinger</t>
+  </si>
+  <si>
+    <t>"Silvanus" Stinger</t>
+  </si>
+  <si>
+    <t>"Depths" Stinger</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Stinger</t>
+  </si>
+  <si>
+    <t>"Doodle Buds" Stinger</t>
+  </si>
+  <si>
+    <t>"Prelude to Chaos" Stinger</t>
+  </si>
+  <si>
+    <t>sr1</t>
+  </si>
+  <si>
+    <t>sr2</t>
+  </si>
+  <si>
+    <t>sr3</t>
+  </si>
+  <si>
+    <t>sr4</t>
+  </si>
+  <si>
+    <t>sr5</t>
+  </si>
+  <si>
+    <t>sr6</t>
+  </si>
+  <si>
+    <t>sr7</t>
+  </si>
+  <si>
+    <t>sr8</t>
+  </si>
+  <si>
+    <t>sr9</t>
+  </si>
+  <si>
+    <t>sr10</t>
+  </si>
+  <si>
+    <t>sr11</t>
+  </si>
+  <si>
+    <t>"Default" Ares</t>
+  </si>
+  <si>
+    <t>"Rush" Ares</t>
+  </si>
+  <si>
+    <t>"Aristocrat" Ares</t>
+  </si>
+  <si>
+    <t>"Prism" Ares</t>
+  </si>
+  <si>
+    <t>"Sakura" Ares</t>
+  </si>
+  <si>
+    <t>"Hivemind" Ares</t>
+  </si>
+  <si>
+    <t>"Singularity" Ares</t>
+  </si>
+  <si>
+    <t>"Celestial" Ares</t>
+  </si>
+  <si>
+    <t>"Infantry" Ares</t>
+  </si>
+  <si>
+    <t>"Minima" Ares</t>
+  </si>
+  <si>
+    <t>"Sentinels of Light" Ares</t>
+  </si>
+  <si>
+    <t>"Nebula" Ares</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 2" Ares</t>
+  </si>
+  <si>
+    <t>"Nunca Olvidados" Ares</t>
+  </si>
+  <si>
+    <t>"Magepunk" Ares</t>
+  </si>
+  <si>
+    <t>"Snowfall" Ares</t>
+  </si>
+  <si>
+    <t>"Endeavour" Ares</t>
+  </si>
+  <si>
+    <t>"Doodle Buds" Ares</t>
+  </si>
+  <si>
+    <t>"Titanmail" Ares</t>
+  </si>
+  <si>
+    <t>"Ion" Ares</t>
+  </si>
+  <si>
+    <t>as0</t>
+  </si>
+  <si>
+    <t>as1</t>
+  </si>
+  <si>
+    <t>as2</t>
+  </si>
+  <si>
+    <t>as3</t>
+  </si>
+  <si>
+    <t>as4</t>
+  </si>
+  <si>
+    <t>as5</t>
+  </si>
+  <si>
+    <t>as6</t>
+  </si>
+  <si>
+    <t>as7</t>
+  </si>
+  <si>
+    <t>as8</t>
+  </si>
+  <si>
+    <t>as9</t>
+  </si>
+  <si>
+    <t>as10</t>
+  </si>
+  <si>
+    <t>as11</t>
+  </si>
+  <si>
+    <t>as12</t>
+  </si>
+  <si>
+    <t>as13</t>
+  </si>
+  <si>
+    <t>as14</t>
+  </si>
+  <si>
+    <t>as15</t>
+  </si>
+  <si>
+    <t>as16</t>
+  </si>
+  <si>
+    <t>as17</t>
+  </si>
+  <si>
+    <t>as18</t>
+  </si>
+  <si>
+    <t>as19</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>se0</t>
+  </si>
+  <si>
+    <t>"Default" Spectre</t>
+  </si>
+  <si>
+    <t>"Luxe" Spectre</t>
+  </si>
+  <si>
+    <t>"Prime" Spectre</t>
+  </si>
+  <si>
+    <t>"Avalanche" Spectre</t>
+  </si>
+  <si>
+    <t>"Prism" Spectre</t>
+  </si>
+  <si>
+    <t>"Convex" Spectre</t>
+  </si>
+  <si>
+    <t>"Hivemind" Spectre</t>
+  </si>
+  <si>
+    <t>"Spline" Spectre</t>
+  </si>
+  <si>
+    <t>"Singularity" Spectre</t>
+  </si>
+  <si>
+    <t>"Gravitational Uranium Neuroblaster" Spectre</t>
+  </si>
+  <si>
+    <t>"Wasteland" Spectre</t>
+  </si>
+  <si>
+    <t>"BlastX" Spectre</t>
+  </si>
+  <si>
+    <t>"Horizon" Spectre</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 1" Spectre</t>
+  </si>
+  <si>
+    <t>"Infantry" Spectre</t>
+  </si>
+  <si>
+    <t>"Magepunk" Spectre</t>
+  </si>
+  <si>
+    <t>"Forsaken" Spectre</t>
+  </si>
+  <si>
+    <t>"Minima" Spectre</t>
+  </si>
+  <si>
+    <t>"Ruination" Spectre</t>
+  </si>
+  <si>
+    <t>"Recon" Spectre</t>
+  </si>
+  <si>
+    <t>"Radiant Crisis 001" Spectre</t>
+  </si>
+  <si>
+    <t>"Protocol 781-A" Spectre</t>
+  </si>
+  <si>
+    <t>"Tigris" Spectre</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Spectre</t>
+  </si>
+  <si>
+    <t>"Neptune" Spectre</t>
+  </si>
+  <si>
+    <t>"Sarmad" Spectre</t>
+  </si>
+  <si>
+    <t>"Reaver" Spectre</t>
+  </si>
+  <si>
+    <t>"Ion" Spectre</t>
+  </si>
+  <si>
+    <t>"Soulstrife" Spectre</t>
+  </si>
+  <si>
+    <t>"Abyssal" Spectre</t>
+  </si>
+  <si>
+    <t>"Luna" Spectre</t>
+  </si>
+  <si>
+    <t>se1</t>
+  </si>
+  <si>
+    <t>se2</t>
+  </si>
+  <si>
+    <t>se3</t>
+  </si>
+  <si>
+    <t>se4</t>
+  </si>
+  <si>
+    <t>se5</t>
+  </si>
+  <si>
+    <t>se6</t>
+  </si>
+  <si>
+    <t>se7</t>
+  </si>
+  <si>
+    <t>se8</t>
+  </si>
+  <si>
+    <t>se9</t>
+  </si>
+  <si>
+    <t>se10</t>
+  </si>
+  <si>
+    <t>se11</t>
+  </si>
+  <si>
+    <t>se12</t>
+  </si>
+  <si>
+    <t>se13</t>
+  </si>
+  <si>
+    <t>se14</t>
+  </si>
+  <si>
+    <t>se15</t>
+  </si>
+  <si>
+    <t>se16</t>
+  </si>
+  <si>
+    <t>se17</t>
+  </si>
+  <si>
+    <t>se18</t>
+  </si>
+  <si>
+    <t>se19</t>
+  </si>
+  <si>
+    <t>se20</t>
+  </si>
+  <si>
+    <t>se21</t>
+  </si>
+  <si>
+    <t>se22</t>
+  </si>
+  <si>
+    <t>se23</t>
+  </si>
+  <si>
+    <t>se24</t>
+  </si>
+  <si>
+    <t>se25</t>
+  </si>
+  <si>
+    <t>se26</t>
+  </si>
+  <si>
+    <t>se27</t>
+  </si>
+  <si>
+    <t>se28</t>
+  </si>
+  <si>
+    <t>se29</t>
+  </si>
+  <si>
+    <t>se30</t>
+  </si>
+  <si>
+    <t>"Default" Judge</t>
+  </si>
+  <si>
+    <t>"Luxe" Judge</t>
+  </si>
+  <si>
+    <t>"Rush" Judge</t>
+  </si>
+  <si>
+    <t>"Convex" Judge</t>
+  </si>
+  <si>
+    <t>"Elderflame" Judge</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Judge</t>
+  </si>
+  <si>
+    <t>"Smite" Judge</t>
+  </si>
+  <si>
+    <t>"Sensation" Judge</t>
+  </si>
+  <si>
+    <t>"Celestial" Judge</t>
+  </si>
+  <si>
+    <t>"Snowfall" Judge</t>
+  </si>
+  <si>
+    <t>"Undercity" Judge</t>
+  </si>
+  <si>
+    <t>"Team Ace" Judge</t>
+  </si>
+  <si>
+    <t>"Kohaku &amp; Matsuba" Judge</t>
+  </si>
+  <si>
+    <t>"ChronoVoid" Judge</t>
+  </si>
+  <si>
+    <t>"Crimsonbeast" Judge</t>
+  </si>
+  <si>
+    <t>je0</t>
+  </si>
+  <si>
+    <t>je1</t>
+  </si>
+  <si>
+    <t>je2</t>
+  </si>
+  <si>
+    <t>je3</t>
+  </si>
+  <si>
+    <t>je4</t>
+  </si>
+  <si>
+    <t>je5</t>
+  </si>
+  <si>
+    <t>je6</t>
+  </si>
+  <si>
+    <t>je7</t>
+  </si>
+  <si>
+    <t>je8</t>
+  </si>
+  <si>
+    <t>je9</t>
+  </si>
+  <si>
+    <t>je10</t>
+  </si>
+  <si>
+    <t>je11</t>
+  </si>
+  <si>
+    <t>je12</t>
+  </si>
+  <si>
+    <t>je13</t>
+  </si>
+  <si>
+    <t>je14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +1507,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -915,8 +1539,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1196,21 +1821,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1220,1123 +1845,1947 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="C67" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C123" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="C124" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" s="1" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>282</v>
       </c>
-      <c r="C141" t="s">
-        <v>265</v>
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>293</v>
+      </c>
+      <c r="C153" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>294</v>
+      </c>
+      <c r="C154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>341</v>
+      </c>
+      <c r="C175" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>343</v>
+      </c>
+      <c r="C177" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>344</v>
+      </c>
+      <c r="C178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>360</v>
+      </c>
+      <c r="C183" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>361</v>
+      </c>
+      <c r="C184" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>362</v>
+      </c>
+      <c r="C185" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>363</v>
+      </c>
+      <c r="C186" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>364</v>
+      </c>
+      <c r="C187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>366</v>
+      </c>
+      <c r="C189" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>367</v>
+      </c>
+      <c r="C190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>368</v>
+      </c>
+      <c r="C191" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>370</v>
+      </c>
+      <c r="C193" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>372</v>
+      </c>
+      <c r="C195" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>373</v>
+      </c>
+      <c r="C196" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>374</v>
+      </c>
+      <c r="C197" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>375</v>
+      </c>
+      <c r="C198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>398</v>
+      </c>
+      <c r="C199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+      <c r="C200" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>401</v>
+      </c>
+      <c r="C202" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>402</v>
+      </c>
+      <c r="C203" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>404</v>
+      </c>
+      <c r="C205" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>405</v>
+      </c>
+      <c r="C206" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>406</v>
+      </c>
+      <c r="C207" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>407</v>
+      </c>
+      <c r="C208" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>408</v>
+      </c>
+      <c r="C209" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>409</v>
+      </c>
+      <c r="C210" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>410</v>
+      </c>
+      <c r="C211" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>411</v>
+      </c>
+      <c r="C212" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>412</v>
+      </c>
+      <c r="C213" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>413</v>
+      </c>
+      <c r="C214" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>415</v>
+      </c>
+      <c r="C216" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>416</v>
+      </c>
+      <c r="C217" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>417</v>
+      </c>
+      <c r="C218" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>418</v>
+      </c>
+      <c r="C219" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>419</v>
+      </c>
+      <c r="C220" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>420</v>
+      </c>
+      <c r="C221" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>421</v>
+      </c>
+      <c r="C222" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>422</v>
+      </c>
+      <c r="C223" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>423</v>
+      </c>
+      <c r="C224" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>424</v>
+      </c>
+      <c r="C225" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>425</v>
+      </c>
+      <c r="C226" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>426</v>
+      </c>
+      <c r="C227" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>427</v>
+      </c>
+      <c r="C228" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>428</v>
+      </c>
+      <c r="C229" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+      <c r="C230" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>460</v>
+      </c>
+      <c r="C231" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>461</v>
+      </c>
+      <c r="C232" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>462</v>
+      </c>
+      <c r="C233" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>463</v>
+      </c>
+      <c r="C234" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>464</v>
+      </c>
+      <c r="C235" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>465</v>
+      </c>
+      <c r="C236" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>466</v>
+      </c>
+      <c r="C237" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>467</v>
+      </c>
+      <c r="C238" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>468</v>
+      </c>
+      <c r="C239" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>469</v>
+      </c>
+      <c r="C240" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>470</v>
+      </c>
+      <c r="C241" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>471</v>
+      </c>
+      <c r="C242" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>472</v>
+      </c>
+      <c r="C243" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>473</v>
+      </c>
+      <c r="C244" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="785">
   <si>
     <t>skinid</t>
   </si>
@@ -1491,6 +1491,894 @@
   </si>
   <si>
     <t>je14</t>
+  </si>
+  <si>
+    <t>bg0</t>
+  </si>
+  <si>
+    <t>bg1</t>
+  </si>
+  <si>
+    <t>bg2</t>
+  </si>
+  <si>
+    <t>bg3</t>
+  </si>
+  <si>
+    <t>bg4</t>
+  </si>
+  <si>
+    <t>bg5</t>
+  </si>
+  <si>
+    <t>bg6</t>
+  </si>
+  <si>
+    <t>bg7</t>
+  </si>
+  <si>
+    <t>bg8</t>
+  </si>
+  <si>
+    <t>bg9</t>
+  </si>
+  <si>
+    <t>bg10</t>
+  </si>
+  <si>
+    <t>bg11</t>
+  </si>
+  <si>
+    <t>bg12</t>
+  </si>
+  <si>
+    <t>bg13</t>
+  </si>
+  <si>
+    <t>"Default" Bulldog</t>
+  </si>
+  <si>
+    <t>"Rush" Bulldog</t>
+  </si>
+  <si>
+    <t>"Aristocrat" Bulldog</t>
+  </si>
+  <si>
+    <t>"Convex" Bulldog</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Bulldog</t>
+  </si>
+  <si>
+    <t>"Horizon" Bulldog</t>
+  </si>
+  <si>
+    <t>"Depths" Bulldog</t>
+  </si>
+  <si>
+    <t>"Spectrum" Bulldog</t>
+  </si>
+  <si>
+    <t>"Nunca Olvidados" Bulldog</t>
+  </si>
+  <si>
+    <t>"Protocol 781-A" Bulldog</t>
+  </si>
+  <si>
+    <t>"Undercity" Bulldog</t>
+  </si>
+  <si>
+    <t>"Endeavour" Bulldog</t>
+  </si>
+  <si>
+    <t>"Cryostasis" Bulldog</t>
+  </si>
+  <si>
+    <t>"Araxys" Bulldog</t>
+  </si>
+  <si>
+    <t>gn0</t>
+  </si>
+  <si>
+    <t>"Default" Guardian</t>
+  </si>
+  <si>
+    <t>"Galleria" Guardian</t>
+  </si>
+  <si>
+    <t>"Prime" Guardian</t>
+  </si>
+  <si>
+    <t>"Sovereign" Guardian</t>
+  </si>
+  <si>
+    <t>"Oni" Guardian</t>
+  </si>
+  <si>
+    <t>"Ego" Guardian</t>
+  </si>
+  <si>
+    <t>"Reaver" Guardian</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 1" Guardian</t>
+  </si>
+  <si>
+    <t>"Infantry" Guardian</t>
+  </si>
+  <si>
+    <t>"Tethered Realms" Guardian</t>
+  </si>
+  <si>
+    <t>"Ruination" Guardian</t>
+  </si>
+  <si>
+    <t>"Nebula" Guardian</t>
+  </si>
+  <si>
+    <t>"Spectrum" Guardian</t>
+  </si>
+  <si>
+    <t>"Recon" Guardian</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Guardian</t>
+  </si>
+  <si>
+    <t>"Magepunk" Guardian</t>
+  </si>
+  <si>
+    <t>"Gaia's Vengeance" Guardian</t>
+  </si>
+  <si>
+    <t>"Neptune" Guardian</t>
+  </si>
+  <si>
+    <t>"Soulstrife" Guardian</t>
+  </si>
+  <si>
+    <t>"Abyssal" Guardian</t>
+  </si>
+  <si>
+    <t>"Reverie" Guardian</t>
+  </si>
+  <si>
+    <t>gn1</t>
+  </si>
+  <si>
+    <t>gn2</t>
+  </si>
+  <si>
+    <t>gn3</t>
+  </si>
+  <si>
+    <t>gn4</t>
+  </si>
+  <si>
+    <t>gn5</t>
+  </si>
+  <si>
+    <t>gn6</t>
+  </si>
+  <si>
+    <t>gn7</t>
+  </si>
+  <si>
+    <t>gn8</t>
+  </si>
+  <si>
+    <t>gn9</t>
+  </si>
+  <si>
+    <t>gn10</t>
+  </si>
+  <si>
+    <t>gn11</t>
+  </si>
+  <si>
+    <t>gn12</t>
+  </si>
+  <si>
+    <t>gn13</t>
+  </si>
+  <si>
+    <t>gn14</t>
+  </si>
+  <si>
+    <t>gn15</t>
+  </si>
+  <si>
+    <t>gn16</t>
+  </si>
+  <si>
+    <t>gn17</t>
+  </si>
+  <si>
+    <t>gn18</t>
+  </si>
+  <si>
+    <t>gn19</t>
+  </si>
+  <si>
+    <t>gn20</t>
+  </si>
+  <si>
+    <t>pm0</t>
+  </si>
+  <si>
+    <t>"Default" Phantom</t>
+  </si>
+  <si>
+    <t>"Galleria" Phantom</t>
+  </si>
+  <si>
+    <t>"Rush" Phantom</t>
+  </si>
+  <si>
+    <t>"Avalanche" Phantom</t>
+  </si>
+  <si>
+    <t>"Prism" Phantom</t>
+  </si>
+  <si>
+    <t>"Oni" Phantom</t>
+  </si>
+  <si>
+    <t>"Spline" Phantom</t>
+  </si>
+  <si>
+    <t>"Smite" Phantom</t>
+  </si>
+  <si>
+    <t>"Singularity" Phantom</t>
+  </si>
+  <si>
+    <t>"Ion" Phantom</t>
+  </si>
+  <si>
+    <t>"BlastX" Phantom</t>
+  </si>
+  <si>
+    <t>"Winterwunderland" Phantom</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Phantom</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 1" Phantom</t>
+  </si>
+  <si>
+    <t>"Celestial" Phantom</t>
+  </si>
+  <si>
+    <t>"Prime//2.0" Phantom</t>
+  </si>
+  <si>
+    <t>"Silvanus" Phantom</t>
+  </si>
+  <si>
+    <t>"Minima" Phantom</t>
+  </si>
+  <si>
+    <t>"Ruination" Phantom</t>
+  </si>
+  <si>
+    <t>"Nebula" Phantom</t>
+  </si>
+  <si>
+    <t>"Artisan" Phantom</t>
+  </si>
+  <si>
+    <t>"Spectrum" Phantom</t>
+  </si>
+  <si>
+    <t>"Recon" Phantom</t>
+  </si>
+  <si>
+    <t>"Radiant Crisis 001" Phantom</t>
+  </si>
+  <si>
+    <t>"Snowfall" Phantom</t>
+  </si>
+  <si>
+    <t>"Protocol 781-A" Phantom</t>
+  </si>
+  <si>
+    <t>"Tigris" Phantom</t>
+  </si>
+  <si>
+    <t>"Undercity" Phantom</t>
+  </si>
+  <si>
+    <t>"Team Ace" Phantom</t>
+  </si>
+  <si>
+    <t>"Doodle Buds" Phantom</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Phantom</t>
+  </si>
+  <si>
+    <t>"Xenohunter" Phantom</t>
+  </si>
+  <si>
+    <t>"Sarmad" Phantom</t>
+  </si>
+  <si>
+    <t>"Reaver" Phantom</t>
+  </si>
+  <si>
+    <t>"Kohaku &amp; Matsuba" Phantom</t>
+  </si>
+  <si>
+    <t>"ChronoVoid" Phantom</t>
+  </si>
+  <si>
+    <t>"Soulstrife" Phantom</t>
+  </si>
+  <si>
+    <t>"Abyssal" Phantom</t>
+  </si>
+  <si>
+    <t>"Reverie" Phantom</t>
+  </si>
+  <si>
+    <t>pm1</t>
+  </si>
+  <si>
+    <t>pm2</t>
+  </si>
+  <si>
+    <t>pm3</t>
+  </si>
+  <si>
+    <t>pm4</t>
+  </si>
+  <si>
+    <t>pm5</t>
+  </si>
+  <si>
+    <t>pm6</t>
+  </si>
+  <si>
+    <t>pm7</t>
+  </si>
+  <si>
+    <t>pm8</t>
+  </si>
+  <si>
+    <t>pm9</t>
+  </si>
+  <si>
+    <t>pm10</t>
+  </si>
+  <si>
+    <t>pm11</t>
+  </si>
+  <si>
+    <t>pm12</t>
+  </si>
+  <si>
+    <t>pm13</t>
+  </si>
+  <si>
+    <t>pm14</t>
+  </si>
+  <si>
+    <t>pm15</t>
+  </si>
+  <si>
+    <t>pm16</t>
+  </si>
+  <si>
+    <t>pm17</t>
+  </si>
+  <si>
+    <t>pm18</t>
+  </si>
+  <si>
+    <t>pm19</t>
+  </si>
+  <si>
+    <t>pm20</t>
+  </si>
+  <si>
+    <t>pm21</t>
+  </si>
+  <si>
+    <t>pm22</t>
+  </si>
+  <si>
+    <t>pm23</t>
+  </si>
+  <si>
+    <t>pm24</t>
+  </si>
+  <si>
+    <t>pm25</t>
+  </si>
+  <si>
+    <t>pm26</t>
+  </si>
+  <si>
+    <t>pm27</t>
+  </si>
+  <si>
+    <t>pm28</t>
+  </si>
+  <si>
+    <t>pm29</t>
+  </si>
+  <si>
+    <t>pm30</t>
+  </si>
+  <si>
+    <t>pm31</t>
+  </si>
+  <si>
+    <t>pm32</t>
+  </si>
+  <si>
+    <t>pm33</t>
+  </si>
+  <si>
+    <t>pm34</t>
+  </si>
+  <si>
+    <t>pm35</t>
+  </si>
+  <si>
+    <t>pm36</t>
+  </si>
+  <si>
+    <t>pm37</t>
+  </si>
+  <si>
+    <t>pm38</t>
+  </si>
+  <si>
+    <t>"Default" Vandal</t>
+  </si>
+  <si>
+    <t>vl0</t>
+  </si>
+  <si>
+    <t>vl1</t>
+  </si>
+  <si>
+    <t>vl2</t>
+  </si>
+  <si>
+    <t>vl3</t>
+  </si>
+  <si>
+    <t>vl4</t>
+  </si>
+  <si>
+    <t>vl5</t>
+  </si>
+  <si>
+    <t>vl6</t>
+  </si>
+  <si>
+    <t>vl7</t>
+  </si>
+  <si>
+    <t>vl8</t>
+  </si>
+  <si>
+    <t>vl9</t>
+  </si>
+  <si>
+    <t>vl10</t>
+  </si>
+  <si>
+    <t>vl11</t>
+  </si>
+  <si>
+    <t>vl12</t>
+  </si>
+  <si>
+    <t>vl13</t>
+  </si>
+  <si>
+    <t>vl14</t>
+  </si>
+  <si>
+    <t>vl15</t>
+  </si>
+  <si>
+    <t>vl16</t>
+  </si>
+  <si>
+    <t>vl17</t>
+  </si>
+  <si>
+    <t>vl18</t>
+  </si>
+  <si>
+    <t>vl19</t>
+  </si>
+  <si>
+    <t>vl20</t>
+  </si>
+  <si>
+    <t>vl21</t>
+  </si>
+  <si>
+    <t>vl22</t>
+  </si>
+  <si>
+    <t>vl23</t>
+  </si>
+  <si>
+    <t>vl24</t>
+  </si>
+  <si>
+    <t>vl25</t>
+  </si>
+  <si>
+    <t>vl26</t>
+  </si>
+  <si>
+    <t>vl27</t>
+  </si>
+  <si>
+    <t>vl28</t>
+  </si>
+  <si>
+    <t>vl29</t>
+  </si>
+  <si>
+    <t>vl30</t>
+  </si>
+  <si>
+    <t>vl31</t>
+  </si>
+  <si>
+    <t>"Luxe" Vandal</t>
+  </si>
+  <si>
+    <t>"Prime" Vandal</t>
+  </si>
+  <si>
+    <t>"Aristocrat" Vandal</t>
+  </si>
+  <si>
+    <t>"Avalanche" Vandal</t>
+  </si>
+  <si>
+    <t>"Elderflame" Vandal</t>
+  </si>
+  <si>
+    <t>"Sakura" Vandal</t>
+  </si>
+  <si>
+    <t>"Hivemind" Vandal</t>
+  </si>
+  <si>
+    <t>"Ego" Vandal</t>
+  </si>
+  <si>
+    <t>"Reaver" Vandal</t>
+  </si>
+  <si>
+    <t>"Wasteland" Vandal</t>
+  </si>
+  <si>
+    <t>"Sensation" Vandal</t>
+  </si>
+  <si>
+    <t>"Winterwunderland" Vandal</t>
+  </si>
+  <si>
+    <t>"Prism II" Vandal</t>
+  </si>
+  <si>
+    <t>"Horizon" Vandal</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Vandal</t>
+  </si>
+  <si>
+    <t>"Cavalier" Vandal</t>
+  </si>
+  <si>
+    <t>"Silvanus" Vandal</t>
+  </si>
+  <si>
+    <t>"Depths" Vandal</t>
+  </si>
+  <si>
+    <t>"Forsaken" Vandal</t>
+  </si>
+  <si>
+    <t>"Tethered Realms" Vandal</t>
+  </si>
+  <si>
+    <t>"Origin" Vandal</t>
+  </si>
+  <si>
+    <t>"Sentinels of Light" Vandal</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 2" Vandal</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Vandal</t>
+  </si>
+  <si>
+    <t>"Nunca Olvidados" Vandal</t>
+  </si>
+  <si>
+    <t>"Team Ace" Vandal</t>
+  </si>
+  <si>
+    <t>"Gaia's Vengeance" Vandal</t>
+  </si>
+  <si>
+    <t>"Endeavour" Vandal</t>
+  </si>
+  <si>
+    <t>"Titanmail" Vandal</t>
+  </si>
+  <si>
+    <t>"Neptune" Vandal</t>
+  </si>
+  <si>
+    <t>"Prelude to Chaos" Vandal</t>
+  </si>
+  <si>
+    <t>"Sarmad" Vandal</t>
+  </si>
+  <si>
+    <t>"ChronoVoid" Vandal</t>
+  </si>
+  <si>
+    <t>"Crimsonbeast" Vandal</t>
+  </si>
+  <si>
+    <t>"Ion" Vandal</t>
+  </si>
+  <si>
+    <t>"Cryostasis" Vandal</t>
+  </si>
+  <si>
+    <t>"Araxys" Vandal</t>
+  </si>
+  <si>
+    <t>"Luna" Vandal</t>
+  </si>
+  <si>
+    <t>vl32</t>
+  </si>
+  <si>
+    <t>vl33</t>
+  </si>
+  <si>
+    <t>vl34</t>
+  </si>
+  <si>
+    <t>vl35</t>
+  </si>
+  <si>
+    <t>vl36</t>
+  </si>
+  <si>
+    <t>vl37</t>
+  </si>
+  <si>
+    <t>vl38</t>
+  </si>
+  <si>
+    <t>on0</t>
+  </si>
+  <si>
+    <t>"Default" Odin</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Odin</t>
+  </si>
+  <si>
+    <t>"Smite" Odin</t>
+  </si>
+  <si>
+    <t>"Sensation" Odin</t>
+  </si>
+  <si>
+    <t>"BlastX" Odin</t>
+  </si>
+  <si>
+    <t>"Prime//2.0" Odin</t>
+  </si>
+  <si>
+    <t>"Xenohunter" Odin</t>
+  </si>
+  <si>
+    <t>"Reaver" Odin</t>
+  </si>
+  <si>
+    <t>on1</t>
+  </si>
+  <si>
+    <t>on2</t>
+  </si>
+  <si>
+    <t>on3</t>
+  </si>
+  <si>
+    <t>on4</t>
+  </si>
+  <si>
+    <t>on5</t>
+  </si>
+  <si>
+    <t>on6</t>
+  </si>
+  <si>
+    <t>on7</t>
+  </si>
+  <si>
+    <t>or0</t>
+  </si>
+  <si>
+    <t>"Default" Operator</t>
+  </si>
+  <si>
+    <t>"Luxe" Operator</t>
+  </si>
+  <si>
+    <t>"Prism" Operator</t>
+  </si>
+  <si>
+    <t>"Convex" Operator</t>
+  </si>
+  <si>
+    <t>"Elderflame" Operator</t>
+  </si>
+  <si>
+    <t>"Spline" Operator</t>
+  </si>
+  <si>
+    <t>"Gravitational Uranium Neuroblaster" Operator</t>
+  </si>
+  <si>
+    <t>"Reaver" Operator</t>
+  </si>
+  <si>
+    <t>"Ion" Operator</t>
+  </si>
+  <si>
+    <t>"Glitchpop" Operator</t>
+  </si>
+  <si>
+    <t>"Infantry" Operator</t>
+  </si>
+  <si>
+    <t>"Silvanus" Operator</t>
+  </si>
+  <si>
+    <t>"Forsaken" Operator</t>
+  </si>
+  <si>
+    <t>"Minima" Operator</t>
+  </si>
+  <si>
+    <t>"Tethered Realms" Operator</t>
+  </si>
+  <si>
+    <t>"Origin" Operator</t>
+  </si>
+  <si>
+    <t>"Sentinels of Light" Operator</t>
+  </si>
+  <si>
+    <t>"VALORANT GO! Vol. 2" Operator</t>
+  </si>
+  <si>
+    <t>"Magepunk" Operator</t>
+  </si>
+  <si>
+    <t>"Tigris" Operator</t>
+  </si>
+  <si>
+    <t>"Team Ace" Operator</t>
+  </si>
+  <si>
+    <t>"Endeavour" Operator</t>
+  </si>
+  <si>
+    <t>"RGX 11z Pro" Operator</t>
+  </si>
+  <si>
+    <t>"Prelude to Chaos" Operator</t>
+  </si>
+  <si>
+    <t>"Kohaku &amp; Matsuba" Operator</t>
+  </si>
+  <si>
+    <t>"Cryostasis" Operator</t>
+  </si>
+  <si>
+    <t>"Araxys" Operator</t>
+  </si>
+  <si>
+    <t>or1</t>
+  </si>
+  <si>
+    <t>or2</t>
+  </si>
+  <si>
+    <t>or3</t>
+  </si>
+  <si>
+    <t>or4</t>
+  </si>
+  <si>
+    <t>or5</t>
+  </si>
+  <si>
+    <t>or6</t>
+  </si>
+  <si>
+    <t>or7</t>
+  </si>
+  <si>
+    <t>or8</t>
+  </si>
+  <si>
+    <t>or9</t>
+  </si>
+  <si>
+    <t>or10</t>
+  </si>
+  <si>
+    <t>or11</t>
+  </si>
+  <si>
+    <t>or12</t>
+  </si>
+  <si>
+    <t>or13</t>
+  </si>
+  <si>
+    <t>or14</t>
+  </si>
+  <si>
+    <t>or15</t>
+  </si>
+  <si>
+    <t>or16</t>
+  </si>
+  <si>
+    <t>or17</t>
+  </si>
+  <si>
+    <t>or18</t>
+  </si>
+  <si>
+    <t>or19</t>
+  </si>
+  <si>
+    <t>or20</t>
+  </si>
+  <si>
+    <t>or21</t>
+  </si>
+  <si>
+    <t>or22</t>
+  </si>
+  <si>
+    <t>or23</t>
+  </si>
+  <si>
+    <t>or24</t>
+  </si>
+  <si>
+    <t>or25</t>
+  </si>
+  <si>
+    <t>or26</t>
   </si>
 </sst>
 </file>
@@ -1822,15 +2710,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D244"/>
+  <dimension ref="B1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D390" sqref="D390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
@@ -3786,6 +4674,1190 @@
       </c>
       <c r="C244" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>503</v>
+      </c>
+      <c r="C245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>504</v>
+      </c>
+      <c r="C246" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>505</v>
+      </c>
+      <c r="C247" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>506</v>
+      </c>
+      <c r="C248" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>507</v>
+      </c>
+      <c r="C249" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>508</v>
+      </c>
+      <c r="C250" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>509</v>
+      </c>
+      <c r="C251" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>510</v>
+      </c>
+      <c r="C252" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>511</v>
+      </c>
+      <c r="C253" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>513</v>
+      </c>
+      <c r="C255" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>514</v>
+      </c>
+      <c r="C256" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>515</v>
+      </c>
+      <c r="C257" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>516</v>
+      </c>
+      <c r="C258" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>518</v>
+      </c>
+      <c r="C259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+      <c r="C260" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>520</v>
+      </c>
+      <c r="C261" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>521</v>
+      </c>
+      <c r="C262" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>522</v>
+      </c>
+      <c r="C263" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>523</v>
+      </c>
+      <c r="C264" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>524</v>
+      </c>
+      <c r="C265" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>525</v>
+      </c>
+      <c r="C266" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>526</v>
+      </c>
+      <c r="C267" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>527</v>
+      </c>
+      <c r="C268" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>528</v>
+      </c>
+      <c r="C269" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>529</v>
+      </c>
+      <c r="C270" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>530</v>
+      </c>
+      <c r="C271" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>531</v>
+      </c>
+      <c r="C272" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>532</v>
+      </c>
+      <c r="C273" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>533</v>
+      </c>
+      <c r="C274" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>534</v>
+      </c>
+      <c r="C275" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>535</v>
+      </c>
+      <c r="C276" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>536</v>
+      </c>
+      <c r="C277" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>537</v>
+      </c>
+      <c r="C278" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>538</v>
+      </c>
+      <c r="C279" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>560</v>
+      </c>
+      <c r="C280" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>561</v>
+      </c>
+      <c r="C281" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>562</v>
+      </c>
+      <c r="C282" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>563</v>
+      </c>
+      <c r="C283" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>564</v>
+      </c>
+      <c r="C284" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>565</v>
+      </c>
+      <c r="C285" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>566</v>
+      </c>
+      <c r="C286" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>567</v>
+      </c>
+      <c r="C287" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>568</v>
+      </c>
+      <c r="C288" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>569</v>
+      </c>
+      <c r="C289" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>570</v>
+      </c>
+      <c r="C290" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>571</v>
+      </c>
+      <c r="C291" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>572</v>
+      </c>
+      <c r="C292" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>573</v>
+      </c>
+      <c r="C293" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>574</v>
+      </c>
+      <c r="C294" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>575</v>
+      </c>
+      <c r="C295" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>576</v>
+      </c>
+      <c r="C296" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>577</v>
+      </c>
+      <c r="C297" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>578</v>
+      </c>
+      <c r="C298" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>579</v>
+      </c>
+      <c r="C299" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>580</v>
+      </c>
+      <c r="C300" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>581</v>
+      </c>
+      <c r="C301" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>582</v>
+      </c>
+      <c r="C302" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>583</v>
+      </c>
+      <c r="C303" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>584</v>
+      </c>
+      <c r="C304" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>585</v>
+      </c>
+      <c r="C305" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>586</v>
+      </c>
+      <c r="C306" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>587</v>
+      </c>
+      <c r="C307" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>588</v>
+      </c>
+      <c r="C308" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>589</v>
+      </c>
+      <c r="C309" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>590</v>
+      </c>
+      <c r="C310" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>591</v>
+      </c>
+      <c r="C311" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>592</v>
+      </c>
+      <c r="C312" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>593</v>
+      </c>
+      <c r="C313" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>594</v>
+      </c>
+      <c r="C314" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>595</v>
+      </c>
+      <c r="C315" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>596</v>
+      </c>
+      <c r="C316" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>597</v>
+      </c>
+      <c r="C317" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>598</v>
+      </c>
+      <c r="C318" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>637</v>
+      </c>
+      <c r="C319" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>670</v>
+      </c>
+      <c r="C320" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>671</v>
+      </c>
+      <c r="C321" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>672</v>
+      </c>
+      <c r="C322" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>673</v>
+      </c>
+      <c r="C323" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>674</v>
+      </c>
+      <c r="C324" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>675</v>
+      </c>
+      <c r="C325" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>676</v>
+      </c>
+      <c r="C326" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>677</v>
+      </c>
+      <c r="C327" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>678</v>
+      </c>
+      <c r="C328" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>679</v>
+      </c>
+      <c r="C329" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>680</v>
+      </c>
+      <c r="C330" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>681</v>
+      </c>
+      <c r="C331" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>682</v>
+      </c>
+      <c r="C332" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>683</v>
+      </c>
+      <c r="C333" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>684</v>
+      </c>
+      <c r="C334" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>685</v>
+      </c>
+      <c r="C335" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>686</v>
+      </c>
+      <c r="C336" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>687</v>
+      </c>
+      <c r="C337" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>688</v>
+      </c>
+      <c r="C338" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>689</v>
+      </c>
+      <c r="C339" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>690</v>
+      </c>
+      <c r="C340" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>691</v>
+      </c>
+      <c r="C341" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>692</v>
+      </c>
+      <c r="C342" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>693</v>
+      </c>
+      <c r="C343" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>694</v>
+      </c>
+      <c r="C344" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>695</v>
+      </c>
+      <c r="C345" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>696</v>
+      </c>
+      <c r="C346" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>697</v>
+      </c>
+      <c r="C347" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>698</v>
+      </c>
+      <c r="C348" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>699</v>
+      </c>
+      <c r="C349" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>700</v>
+      </c>
+      <c r="C350" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>701</v>
+      </c>
+      <c r="C351" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>702</v>
+      </c>
+      <c r="C352" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>703</v>
+      </c>
+      <c r="C353" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>704</v>
+      </c>
+      <c r="C354" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>705</v>
+      </c>
+      <c r="C355" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>706</v>
+      </c>
+      <c r="C356" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>707</v>
+      </c>
+      <c r="C357" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>716</v>
+      </c>
+      <c r="C358" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>717</v>
+      </c>
+      <c r="C359" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>718</v>
+      </c>
+      <c r="C360" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>719</v>
+      </c>
+      <c r="C361" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>720</v>
+      </c>
+      <c r="C362" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>721</v>
+      </c>
+      <c r="C363" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>722</v>
+      </c>
+      <c r="C364" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>723</v>
+      </c>
+      <c r="C365" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>732</v>
+      </c>
+      <c r="C366" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>733</v>
+      </c>
+      <c r="C367" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>735</v>
+      </c>
+      <c r="C369" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>736</v>
+      </c>
+      <c r="C370" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>737</v>
+      </c>
+      <c r="C371" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>738</v>
+      </c>
+      <c r="C372" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>739</v>
+      </c>
+      <c r="C373" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>740</v>
+      </c>
+      <c r="C374" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>741</v>
+      </c>
+      <c r="C375" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>742</v>
+      </c>
+      <c r="C376" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>743</v>
+      </c>
+      <c r="C377" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>744</v>
+      </c>
+      <c r="C378" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>745</v>
+      </c>
+      <c r="C379" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>746</v>
+      </c>
+      <c r="C380" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>747</v>
+      </c>
+      <c r="C381" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>748</v>
+      </c>
+      <c r="C382" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>749</v>
+      </c>
+      <c r="C383" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>750</v>
+      </c>
+      <c r="C384" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>751</v>
+      </c>
+      <c r="C385" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>752</v>
+      </c>
+      <c r="C386" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>753</v>
+      </c>
+      <c r="C387" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>754</v>
+      </c>
+      <c r="C388" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>755</v>
+      </c>
+      <c r="C389" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>756</v>
+      </c>
+      <c r="C390" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>757</v>
+      </c>
+      <c r="C391" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>758</v>
+      </c>
+      <c r="C392" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15600" yWindow="3180" windowWidth="12180" windowHeight="10950" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="skins" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,12 +29,6 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -407,8 +401,8 @@
   </sheetPr>
   <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1771,7 +1765,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1953,7 +1947,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2913,7 +2907,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3149,7 +3143,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3367,7 +3361,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3585,7 +3579,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3947,7 +3941,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4507,7 +4501,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -4779,7 +4773,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -5033,7 +5027,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5413,7 +5407,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6117,7 +6111,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6821,7 +6815,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -6930,7 +6924,11 @@
           <t>on6</t>
         </is>
       </c>
-      <c r="D364" s="2" t="n"/>
+      <c r="D364" s="2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -6967,7 +6965,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">

--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9990" yWindow="3840" windowWidth="17205" windowHeight="10950" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="skins" sheetId="1" state="visible" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -680,7 +680,9 @@
           <t>ke13</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6924,11 +6926,7 @@
           <t>on6</t>
         </is>
       </c>
-      <c r="D364" s="2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="D364" s="2" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">

--- a/ValoShop/skins.xlsx
+++ b/ValoShop/skins.xlsx
@@ -401,8 +401,8 @@
   </sheetPr>
   <dimension ref="A1:E382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="B136" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Default </t>
+          <t>Default</t>
         </is>
       </c>
       <c r="C136" s="1" t="inlineStr">
